--- a/HumanBasePerformance/Salary Predictor - Human Performance Aggregate.xlsx
+++ b/HumanBasePerformance/Salary Predictor - Human Performance Aggregate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kershtheva/Desktop/MolecularBioSalary_Prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kershtheva/Desktop/MolecularBio-Salary-Prediction2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A332C05-2A10-B04A-A21C-C4C1FEC3FA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC73C10E-5412-5C43-8844-2D329154FAE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35200" yWindow="2620" windowWidth="28040" windowHeight="17040" xr2:uid="{410B02CB-55E8-A245-9F31-D183971DFD4E}"/>
+    <workbookView xWindow="29100" yWindow="1240" windowWidth="28040" windowHeight="19180" xr2:uid="{410B02CB-55E8-A245-9F31-D183971DFD4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Job Title</t>
   </si>
@@ -72,39 +72,6 @@
   </si>
   <si>
     <t>Less than 1</t>
-  </si>
-  <si>
-    <t>Enter the salary prediction range here to the closest 1000th (e.g. 10,000 -50,000, NOT 10,100-50,199)</t>
-  </si>
-  <si>
-    <t>Postdoctoral Fellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Vascular Biology Center at the Augusta University seeks a motivated Post-Doctoral Research Associate to join our team of discovery and translational researchers in the area of Cardiovascular Research. This is a training position designed to carry out advanced independent research to achieve the objectives of the research project, ensuring consistency with established methodological approaches and models, adherence to project timelines, and completeness of documentation. The incumbent will work in a highly collaborative environment and is expected to be an excellent team player. The major emphasis of the position will include studying molecular pathways that regulate angiogenesis in peripheral artery disease (PAD). Examples of recent publications from the lab in this area 1) Circulation. 2019 Jan 8;139(2):226-242, 2) Circ Res. 2017 Jan 20;120(2):282-295, 3) Circulation. 2017 Jun 13;135(24):2403-2425.
-Minimum Requirements
-Ph.D. or equivalent from an accredited university
-Job Summary
-The duties include, but are not limited to:
-Participate in project planning and development of research protocols while ensuring adherence to accepted scientific research principles and compliance with relevant federal guidelines
-Perform a variety of experimental studies including animal behavior, cell biology, and molecular biology experiments
-Experiments may include but not be limited to performing animal surgery, flow cytometry, genotyping, western blot, real-time PCR, immunohistochemistry, and various microscopy and imaging techniques
-Analyze the results of experiments and procedures using manual or computer techniques and, if necessary, develop special computer programs to facilitate analysis
-Coordinate and participate in the research of scientific literature; summarize and evaluate findings;
-Present findings at scientific meetings locally, nationally and internationally and compose articles for publication in scientific journals
-Supervise and coordinate activities of students, graduate assistants, and other research personnel engaged in research activities and/or related laboratory work; advise principal investigators, other postdocs, students and other research
-Preferred Qualifications
-Background in Cardiovascular research and/or molecular and cellular biology
-Experience in mouse survival surgery
-Experience in flow cytometry
-Knowledge, Skills, &amp; Abilities
-Must be highly motivated with a strong work ethic and desire to learn
-Good communication skills are necessary and a sense of urgency in driving the study is required.
-Ability to work independently with only general supervision
-Detail-oriented with strong organizational, multi-tasking and prioritization skills
-Proficient in Microsoft Office and statistical evaluation of experimental data: sample size power calculation, statistical tests (t-tests, ANOVA) using commercially available software (Prism, Graphpad).
-Job Type: Full-time
-Salary: $38,000.00 to $48,000.00 /year. This is a one year position but can be extended based on funding and performance.
-</t>
   </si>
   <si>
     <t>Quality Control Manager</t>
@@ -299,39 +266,6 @@
 Experience creating and optimizing novel assays.
 All qualified applicants will receive consideration for employment without regard to race, sex, color, religion, sexual orientation, gender identity, national origin, protected veteran status, or on the basis of disability.
 #LI-MH1
-Start your job application: click Easy Apply</t>
-  </si>
-  <si>
-    <t>Molecular Technologist</t>
-  </si>
-  <si>
-    <t>MedLogic, LLC
-Molecular Technologist
-Location:
-Salary: $55,000 - $65,000
-Position Description
-• Perform complex clinical testing including but not limited toNucleic acids extraction, and qPCR and ensures the proper use of all protocols.
-• Prepare biological material for downstream genetic testing and analysis.
-• Calibrate instrumentation, validate quality of assay, perform cleaning, maintenance, alignment procedures, quality assurance assays, and troubleshooting on equipment.
-• Maintain daily/weekly logs and QC documents for assays and equipment. Assures the accuracy of all tests performed by adhering to the laboratory's Quality Control Standard Operating Procedures.
-• Perform proficiency testing.
-• Perform data entry on samples received in laboratory.
-• Support inventory maintenance by monitoring inventory levels of reagents and consumables, providing alerts when needed.
-• Maintain a clean laboratory space.
-• Remain competent in all areas of laboratory and attend relevant trainings/webinars.
-• Identifies and reports Reportable Quality incidents to manager.
-• Maintains the appropriate certifications.
-• Adheres to Consultative Genomix core values, safety and compliance policies and procedures.
-Required Skills/ Qualifications
-• Bachelor’s Degree
-• Experience using KingFisher nucleic acid extraction platform and OpenArray technology on Quantstudio 12K system (1-3years experience)
-• Experience with the application of qPCR for urinary tract and respiratory pathogen detection is preferred.
-• MB(ASCP) certification
-• 1-3 years molecular lab experience
-• Strong independent problem solving skills.
-• Ability to work independently and with a team.
-• Fluent using MS Word, &amp; Excel
-• Strong written and verbal communication skills.
 Start your job application: click Easy Apply</t>
   </si>
   <si>
@@ -549,12 +483,45 @@
 Adverum is a clinical-stage gene therapy company targeting unmet medical needs in ophthalmology and rare diseases. Adverum develops gene therapy product candidates designed to provide durable efficacy by inducing sustained expression of a therapeutic protein. Adverum’s core capabilities include clinical development, novel vector discovery and in-house manufacturing expertise, specifically in scalable process development, assay development, and current Good Manufacturing Practices quality control.
 Start your job application: click Easy Apply</t>
   </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>St. Dev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,8 +565,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +600,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -628,10 +652,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,18 +668,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1233EAF-14ED-604D-8013-B502C159EA37}">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,33 +1066,142 @@
     <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="145.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+      <c r="G1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+    </row>
+    <row r="2" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1025,156 +1220,740 @@
       <c r="F3" s="4">
         <v>51</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="9">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9">
+        <v>135</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(H3+G3)/2</f>
+        <v>101</v>
+      </c>
+      <c r="J3" s="10">
+        <v>70</v>
+      </c>
+      <c r="K3" s="11">
+        <f>1-(ABS(J3-G3))/G3</f>
+        <v>0.95522388059701491</v>
+      </c>
+      <c r="L3" s="10">
+        <v>90</v>
+      </c>
+      <c r="M3" s="11">
+        <f>1-(ABS(L3-H3))/H3</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="N3" s="10">
+        <v>80</v>
+      </c>
+      <c r="O3" s="11">
+        <f>1-(ABS(N3-I3))/I3</f>
+        <v>0.79207920792079212</v>
+      </c>
+      <c r="P3" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="13">
+        <f>1-(ABS(P3-G3))/G3</f>
+        <v>0.89552238805970152</v>
+      </c>
+      <c r="R3" s="12">
+        <v>80</v>
+      </c>
+      <c r="S3" s="13">
+        <f t="shared" ref="S3:S13" si="0">1-(ABS(R3-H3))/H3</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="T3" s="12">
+        <v>70</v>
+      </c>
+      <c r="U3" s="13">
+        <f t="shared" ref="U3:U13" si="1">1-(ABS(T3-I3))/I3</f>
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="V3" s="18">
+        <v>60</v>
+      </c>
+      <c r="W3" s="16">
+        <f>1-(ABS(V3-G3))/G3</f>
+        <v>0.89552238805970152</v>
+      </c>
+      <c r="X3" s="18">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="16">
+        <f>1-(ABS(X3-H3))/H3</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="Z3" s="18">
+        <f>(V3+X3)/2</f>
+        <v>75</v>
+      </c>
+      <c r="AA3" s="16">
+        <f>1-(ABS(Z3-I3))/I3</f>
+        <v>0.74257425742574257</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>51</v>
+      </c>
+      <c r="G4" s="9">
+        <v>90</v>
+      </c>
+      <c r="H4" s="9">
+        <v>131</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I12" si="2">(H4+G4)/2</f>
+        <v>110.5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>60</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K9" si="3">1-(ABS(J4-G4))/G4</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L4" s="10">
+        <v>70</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M13" si="4">1-(ABS(L4-H4))/H4</f>
+        <v>0.53435114503816794</v>
+      </c>
+      <c r="N4" s="10">
+        <v>65</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" ref="O4:O12" si="5">1-(ABS(N4-I4))/I4</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="P4" s="12">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q4:Q13" si="6">1-(ABS(P4-G4))/G4</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R4" s="12">
+        <v>100</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="T4" s="12">
+        <v>90</v>
+      </c>
+      <c r="U4" s="13">
+        <f t="shared" si="1"/>
+        <v>0.81447963800904977</v>
+      </c>
+      <c r="V4" s="18">
+        <v>40</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" ref="W4:W13" si="7">1-(ABS(V4-G4))/G4</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="X4" s="18">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" ref="Y4:Y13" si="8">1-(ABS(X4-H4))/H4</f>
+        <v>0.53435114503816794</v>
+      </c>
+      <c r="Z4" s="18">
+        <f t="shared" ref="Z4:Z13" si="9">(V4+X4)/2</f>
+        <v>55</v>
+      </c>
+      <c r="AA4" s="16">
+        <f t="shared" ref="AA4:AA13" si="10">1-(ABS(Z4-I4))/I4</f>
+        <v>0.49773755656108598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
-        <v>1828</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>500</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2009</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5" s="4">
+        <v>201</v>
+      </c>
+      <c r="F5" s="4">
+        <v>201</v>
+      </c>
+      <c r="G5" s="9">
+        <v>105</v>
+      </c>
+      <c r="H5" s="9">
+        <v>115</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="J5" s="14">
+        <v>80</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="3"/>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="L5" s="14">
+        <v>100</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="4"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="N5" s="14">
+        <v>90</v>
+      </c>
+      <c r="O5" s="11">
+        <f>1-(ABS(N5-I5))/I5</f>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="P5" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R5" s="12">
+        <v>85</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="T5" s="12">
+        <v>80</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="V5" s="18">
+        <v>80</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" si="7"/>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="X5" s="18">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" si="8"/>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="Z5" s="18">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" si="10"/>
+        <v>0.86363636363636365</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
         <v>51</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G6" s="9">
+        <v>128</v>
+      </c>
+      <c r="H6" s="9">
+        <v>146</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="J6" s="10">
+        <v>70</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="3"/>
+        <v>0.546875</v>
+      </c>
+      <c r="L6" s="10">
+        <v>90</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="N6" s="10">
+        <v>80</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="5"/>
+        <v>0.58394160583941601</v>
+      </c>
+      <c r="P6" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+      <c r="R6" s="12">
+        <v>140</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95890410958904115</v>
+      </c>
+      <c r="T6" s="12">
+        <v>130</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.94890510948905105</v>
+      </c>
+      <c r="V6" s="18">
+        <v>90</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="7"/>
+        <v>0.703125</v>
+      </c>
+      <c r="X6" s="18">
+        <v>120</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="8"/>
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="Z6" s="18">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="10"/>
+        <v>0.76642335766423364</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2009</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E6" s="4">
-        <v>201</v>
-      </c>
-      <c r="F6" s="4">
-        <v>201</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4">
+        <v>201</v>
+      </c>
+      <c r="G7" s="9">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9">
+        <v>80</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="J7" s="10">
+        <v>80</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818177</v>
+      </c>
+      <c r="L7" s="10">
+        <v>100</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="N7" s="10">
+        <v>90</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="5"/>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="P7" s="12">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.15909090909090917</v>
+      </c>
+      <c r="R7" s="12">
+        <v>110</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="T7" s="12">
+        <v>102.5</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.34677419354838712</v>
+      </c>
+      <c r="V7" s="18">
+        <v>70</v>
+      </c>
+      <c r="W7" s="16">
+        <f t="shared" si="7"/>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="X7" s="18">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z7" s="18">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="10"/>
+        <v>0.62903225806451613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>501</v>
+      </c>
+      <c r="G8" s="9">
+        <v>39</v>
+      </c>
+      <c r="H8" s="9">
+        <v>71</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="J8" s="10">
+        <v>60</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L8" s="10">
+        <v>80</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.87323943661971826</v>
+      </c>
+      <c r="N8" s="10">
+        <v>70</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="P8" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="6"/>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="R8" s="12">
+        <v>60</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="T8" s="12">
+        <v>55</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="18">
+        <v>50</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="7"/>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="X8" s="18">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="8"/>
+        <v>0.87323943661971826</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="10"/>
+        <v>0.81818181818181812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4">
         <v>51</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G9" s="9">
+        <v>25</v>
+      </c>
+      <c r="H9" s="9">
+        <v>44</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>40</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="10">
+        <v>60</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="N9" s="10">
+        <v>50</v>
+      </c>
+      <c r="O9" s="11">
+        <f>1-(ABS(N9-I9))/I9</f>
+        <v>0.55072463768115942</v>
+      </c>
+      <c r="P9" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="R9" s="12">
+        <v>40</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="T9" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.91304347826086962</v>
+      </c>
+      <c r="V9" s="18">
+        <v>30</v>
+      </c>
+      <c r="W9" s="16">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="X9" s="18">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="16">
+        <f t="shared" si="8"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="AA9" s="16">
+        <f t="shared" si="10"/>
+        <v>0.69565217391304346</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4">
-        <v>201</v>
-      </c>
-      <c r="G8" s="5"/>
+    <row r="10" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1888</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9">
+        <v>78</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="J10" s="10">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11">
+        <f>1-(ABS(J10-G10))/G10</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10" s="10">
+        <v>50</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="N10" s="10">
+        <v>40</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="5"/>
+        <v>0.70175438596491224</v>
+      </c>
+      <c r="P10" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R10" s="12">
+        <v>50</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="T10" s="12">
+        <v>45</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="V10" s="18">
+        <v>40</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="7"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="X10" s="18">
+        <v>70</v>
+      </c>
+      <c r="Y10" s="16">
+        <f t="shared" si="8"/>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="Z10" s="18">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" si="10"/>
+        <v>0.96491228070175439</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
-        <v>501</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1182,20 +1961,93 @@
         <v>26</v>
       </c>
       <c r="C11" s="4">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="D11" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>25</v>
+        <v>4.3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="4">
-        <v>51</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="G11" s="9">
+        <v>73</v>
+      </c>
+      <c r="H11" s="9">
+        <v>90</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>81.5</v>
+      </c>
+      <c r="J11" s="10">
+        <v>60</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" ref="K11:K13" si="11">1-(ABS(J11-G11))/G11</f>
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="L11" s="10">
+        <v>80</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="N11" s="10">
+        <v>70</v>
+      </c>
+      <c r="O11" s="11">
+        <f>1-(ABS(N11-I11))/I11</f>
+        <v>0.85889570552147243</v>
+      </c>
+      <c r="P11" s="12">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.8904109589041096</v>
+      </c>
+      <c r="R11" s="12">
+        <v>75</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T11" s="12">
+        <v>70</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.85889570552147243</v>
+      </c>
+      <c r="V11" s="18">
+        <v>50</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.68493150684931514</v>
+      </c>
+      <c r="X11" s="18">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="16">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Z11" s="18">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="10"/>
+        <v>0.79754601226993871</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1203,86 +2055,327 @@
         <v>28</v>
       </c>
       <c r="C12" s="4">
-        <v>1888</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="4">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>51</v>
+      </c>
+      <c r="G12" s="9">
+        <v>69</v>
+      </c>
+      <c r="H12" s="9">
+        <v>87</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="J12" s="10">
+        <v>80</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="11"/>
+        <v>0.84057971014492749</v>
+      </c>
+      <c r="L12" s="10">
+        <v>100</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="4"/>
+        <v>0.85057471264367812</v>
+      </c>
+      <c r="N12" s="10">
+        <v>90</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="5"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="P12" s="12">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>1-(ABS(P12-G12))/G12</f>
+        <v>-0.17391304347826098</v>
+      </c>
+      <c r="R12" s="12">
+        <v>160</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16091954022988508</v>
+      </c>
+      <c r="T12" s="12">
+        <v>155</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2820512820512775E-2</v>
+      </c>
+      <c r="V12" s="18">
+        <v>110</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="7"/>
+        <v>0.40579710144927539</v>
+      </c>
+      <c r="X12" s="18">
+        <v>140</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" si="8"/>
+        <v>0.39080459770114939</v>
+      </c>
+      <c r="Z12" s="18">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="10"/>
+        <v>0.39743589743589747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>51</v>
+      </c>
+      <c r="G13" s="9">
+        <v>72</v>
+      </c>
+      <c r="H13" s="9">
+        <v>106</v>
+      </c>
+      <c r="I13" s="9">
+        <f>(H13+G13)/2</f>
+        <v>89</v>
+      </c>
+      <c r="J13" s="10">
+        <v>80</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="11"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L13" s="10">
+        <v>100</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="4"/>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="N13" s="10">
+        <v>90</v>
+      </c>
+      <c r="O13" s="11">
+        <f>1-(ABS(N13-I13))/I13</f>
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="P13" s="12">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="R13" s="12">
+        <v>110</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="T13" s="12">
+        <v>105</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="V13" s="18">
+        <v>120</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="X13" s="18">
+        <v>150</v>
+      </c>
+      <c r="Y13" s="16">
+        <f t="shared" si="8"/>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="Z13" s="18">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="10"/>
+        <v>0.4831460674157303</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2009</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4">
-        <v>201</v>
-      </c>
-      <c r="G13" s="5"/>
+    <row r="14" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="19">
+        <f>AVERAGE(K3:K13)</f>
+        <v>0.66897697210103757</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19">
+        <f>AVERAGE(M3:M13)</f>
+        <v>0.75186453883792548</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19">
+        <f>AVERAGE(O3:O13)</f>
+        <v>0.72767185185198213</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19">
+        <f>AVERAGE(Q3:Q13)</f>
+        <v>0.6192320650470875</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="19">
+        <f>AVERAGE(S3:S13)</f>
+        <v>0.73006271934077915</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="19">
+        <f>AVERAGE(U3:U13)</f>
+        <v>0.72045082501494662</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="19">
+        <f>AVERAGE(W3:W13)</f>
+        <v>0.64045336836084976</v>
+      </c>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="19">
+        <f>AVERAGE(Y3:Y13)</f>
+        <v>0.72737231604009966</v>
+      </c>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="19">
+        <f>AVERAGE(AA3:AA13)</f>
+        <v>0.6960252766609204</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4">
-        <v>51</v>
-      </c>
-      <c r="G14" s="5"/>
+    <row r="15" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="15">
+        <f>STDEV(K3:K13)</f>
+        <v>0.24215755070984149</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="15">
+        <f>STDEV(M3:M13)</f>
+        <v>0.13868283055710123</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="15">
+        <f>STDEV(O3:O13)</f>
+        <v>0.14696711508229232</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="15">
+        <f>STDEV(Q3:Q13)</f>
+        <v>0.40628564213287316</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="15">
+        <f>STDEV(S3:S13)</f>
+        <v>0.22917399337114611</v>
+      </c>
+      <c r="T15" s="20"/>
+      <c r="U15" s="15">
+        <f>STDEV(U3:U13)</f>
+        <v>0.291775528203018</v>
+      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="15">
+        <f>STDEV(W3:W13)</f>
+        <v>0.20499558875382329</v>
+      </c>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="15">
+        <f>STDEV(Y3:Y13)</f>
+        <v>0.17917764014085358</v>
+      </c>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="15">
+        <f>STDEV(AA3:AA13)</f>
+        <v>0.17635885972551327</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="23">
+        <f>AVERAGE(K14,Q14,W14)</f>
+        <v>0.64288746850299161</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="23">
+        <f>AVERAGE(M14,S14,Y14)</f>
+        <v>0.73643319140626806</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="23">
+        <f>AVERAGE(O14,U14,AA14)</f>
+        <v>0.71471598450928309</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HumanBasePerformance/Salary Predictor - Human Performance Aggregate.xlsx
+++ b/HumanBasePerformance/Salary Predictor - Human Performance Aggregate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kershtheva/Desktop/MolecularBio-Salary-Prediction2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kershtheva/Desktop/MolecularBio-Salary-Prediction/HumanBasePerformance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC73C10E-5412-5C43-8844-2D329154FAE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477052CF-C94A-0F44-81C6-BF5D04CCF4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="1240" windowWidth="28040" windowHeight="19180" xr2:uid="{410B02CB-55E8-A245-9F31-D183971DFD4E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{410B02CB-55E8-A245-9F31-D183971DFD4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Job Title</t>
   </si>
@@ -515,6 +515,21 @@
   </si>
   <si>
     <t>St. Dev</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>With Arturo and Jay (08/2020)</t>
+  </si>
+  <si>
+    <t>3 people (07/2020)</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -581,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +657,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -656,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -737,6 +770,60 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1233EAF-14ED-604D-8013-B502C159EA37}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,9 +1172,21 @@
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.83203125" customWidth="1"/>
+    <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="26" x14ac:dyDescent="0.3">
       <c r="G1" s="24" t="s">
         <v>39</v>
       </c>
@@ -1117,8 +1216,30 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
+      <c r="AB1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
     </row>
-    <row r="2" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1200,8 +1321,50 @@
       <c r="AA2" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="AB2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1294,8 +1457,58 @@
         <f>1-(ABS(Z3-I3))/I3</f>
         <v>0.74257425742574257</v>
       </c>
+      <c r="AB3" s="32">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="31">
+        <f>1-(ABS(AB3-G3))/G3</f>
+        <v>0.88059701492537312</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="31">
+        <f>1-(ABS(AD3-H3))/H3</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="AF3" s="30">
+        <f>(AB3+AD3)/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="AG3" s="31">
+        <f>1-(ABS(AF3-I3))/I3</f>
+        <v>0.86633663366336633</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="36">
+        <f>1-(ABS(AH3-G3))/G3</f>
+        <v>0.89552238805970152</v>
+      </c>
+      <c r="AJ3" s="37">
+        <v>80</v>
+      </c>
+      <c r="AK3" s="36">
+        <f>1-(ABS(AJ3-H3))/H3</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="AL3" s="37">
+        <f>(AH3+AJ3)/2</f>
+        <v>70</v>
+      </c>
+      <c r="AM3" s="36">
+        <f>1-(ABS(AL3-I3))/I3</f>
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="43"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1388,8 +1601,58 @@
         <f t="shared" ref="AA4:AA13" si="10">1-(ABS(Z4-I4))/I4</f>
         <v>0.49773755656108598</v>
       </c>
+      <c r="AB4" s="32">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="31">
+        <f t="shared" ref="AC4:AC13" si="11">1-(ABS(AB4-G4))/G4</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="31">
+        <f t="shared" ref="AE4:AE13" si="12">1-(ABS(AD4-H4))/H4</f>
+        <v>0.91603053435114501</v>
+      </c>
+      <c r="AF4" s="30">
+        <f t="shared" ref="AF4:AF13" si="13">(AB4+AD4)/2</f>
+        <v>105</v>
+      </c>
+      <c r="AG4" s="31">
+        <f t="shared" ref="AG4:AG13" si="14">1-(ABS(AF4-I4))/I4</f>
+        <v>0.95022624434389136</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>80</v>
+      </c>
+      <c r="AI4" s="36">
+        <f t="shared" ref="AI4:AI13" si="15">1-(ABS(AH4-G4))/G4</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AJ4" s="37">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="36">
+        <f t="shared" ref="AK4:AK13" si="16">1-(ABS(AJ4-H4))/H4</f>
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="AL4" s="37">
+        <f t="shared" ref="AL4:AL13" si="17">(AH4+AJ4)/2</f>
+        <v>90</v>
+      </c>
+      <c r="AM4" s="36">
+        <f t="shared" ref="AM4:AM13" si="18">1-(ABS(AL4-I4))/I4</f>
+        <v>0.81447963800904977</v>
+      </c>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="43"/>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1482,8 +1745,58 @@
         <f t="shared" si="10"/>
         <v>0.86363636363636365</v>
       </c>
+      <c r="AB5" s="33">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" si="11"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AD5" s="30">
+        <v>130</v>
+      </c>
+      <c r="AE5" s="31">
+        <f t="shared" si="12"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="AF5" s="30">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+      <c r="AG5" s="31">
+        <f t="shared" si="14"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH5" s="38">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="36">
+        <f t="shared" si="15"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AJ5" s="37">
+        <v>80</v>
+      </c>
+      <c r="AK5" s="36">
+        <f t="shared" si="16"/>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="AL5" s="37">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="AM5" s="36">
+        <f t="shared" si="18"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="43"/>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1576,8 +1889,58 @@
         <f t="shared" si="10"/>
         <v>0.76642335766423364</v>
       </c>
+      <c r="AB6" s="32">
+        <v>140</v>
+      </c>
+      <c r="AC6" s="31">
+        <f t="shared" si="11"/>
+        <v>0.90625</v>
+      </c>
+      <c r="AD6" s="30">
+        <v>160</v>
+      </c>
+      <c r="AE6" s="31">
+        <f t="shared" si="12"/>
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="AF6" s="30">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="AG6" s="31">
+        <f t="shared" si="14"/>
+        <v>0.9051094890510949</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>110</v>
+      </c>
+      <c r="AI6" s="36">
+        <f t="shared" si="15"/>
+        <v>0.859375</v>
+      </c>
+      <c r="AJ6" s="37">
+        <v>150</v>
+      </c>
+      <c r="AK6" s="36">
+        <f t="shared" si="16"/>
+        <v>0.9726027397260274</v>
+      </c>
+      <c r="AL6" s="37">
+        <f t="shared" si="17"/>
+        <v>130</v>
+      </c>
+      <c r="AM6" s="36">
+        <f t="shared" si="18"/>
+        <v>0.94890510948905105</v>
+      </c>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="43"/>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1670,8 +2033,58 @@
         <f t="shared" si="10"/>
         <v>0.62903225806451613</v>
       </c>
+      <c r="AB7" s="32">
+        <v>150</v>
+      </c>
+      <c r="AC7" s="31">
+        <f t="shared" si="11"/>
+        <v>-1.4090909090909092</v>
+      </c>
+      <c r="AD7" s="30">
+        <v>180</v>
+      </c>
+      <c r="AE7" s="31">
+        <f t="shared" si="12"/>
+        <v>-0.25</v>
+      </c>
+      <c r="AF7" s="30">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="AG7" s="31">
+        <f t="shared" si="14"/>
+        <v>-0.66129032258064524</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>80</v>
+      </c>
+      <c r="AI7" s="36">
+        <f t="shared" si="15"/>
+        <v>0.18181818181818177</v>
+      </c>
+      <c r="AJ7" s="37">
+        <v>110</v>
+      </c>
+      <c r="AK7" s="36">
+        <f t="shared" si="16"/>
+        <v>0.625</v>
+      </c>
+      <c r="AL7" s="37">
+        <f t="shared" si="17"/>
+        <v>95</v>
+      </c>
+      <c r="AM7" s="36">
+        <f t="shared" si="18"/>
+        <v>0.467741935483871</v>
+      </c>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="43"/>
     </row>
-    <row r="8" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1764,8 +2177,58 @@
         <f t="shared" si="10"/>
         <v>0.81818181818181812</v>
       </c>
+      <c r="AB8" s="32">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="31">
+        <f t="shared" si="11"/>
+        <v>-5.1282051282051322E-2</v>
+      </c>
+      <c r="AD8" s="30">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="31">
+        <f t="shared" si="12"/>
+        <v>0.59154929577464788</v>
+      </c>
+      <c r="AF8" s="30">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="AG8" s="31">
+        <f t="shared" si="14"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="36">
+        <f t="shared" si="15"/>
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="AJ8" s="37">
+        <v>50</v>
+      </c>
+      <c r="AK8" s="36">
+        <f t="shared" si="16"/>
+        <v>0.70422535211267601</v>
+      </c>
+      <c r="AL8" s="37">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="AM8" s="36">
+        <f t="shared" si="18"/>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="43"/>
     </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1858,8 +2321,58 @@
         <f t="shared" si="10"/>
         <v>0.69565217391304346</v>
       </c>
+      <c r="AB9" s="32">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="31">
+        <f t="shared" si="11"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AD9" s="30">
+        <v>75</v>
+      </c>
+      <c r="AE9" s="31">
+        <f t="shared" si="12"/>
+        <v>0.29545454545454541</v>
+      </c>
+      <c r="AF9" s="30">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="AG9" s="31">
+        <f t="shared" si="14"/>
+        <v>0.26086956521739135</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>50</v>
+      </c>
+      <c r="AI9" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="37">
+        <v>70</v>
+      </c>
+      <c r="AK9" s="36">
+        <f t="shared" si="16"/>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="AL9" s="37">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="AM9" s="36">
+        <f t="shared" si="18"/>
+        <v>0.26086956521739135</v>
+      </c>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="43"/>
     </row>
-    <row r="10" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1952,8 +2465,58 @@
         <f t="shared" si="10"/>
         <v>0.96491228070175439</v>
       </c>
+      <c r="AB10" s="32">
+        <v>60</v>
+      </c>
+      <c r="AC10" s="31">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AD10" s="30">
+        <v>90</v>
+      </c>
+      <c r="AE10" s="31">
+        <f t="shared" si="12"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AF10" s="30">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="AG10" s="31">
+        <f t="shared" si="14"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>35</v>
+      </c>
+      <c r="AI10" s="36">
+        <f t="shared" si="15"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="AJ10" s="37">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="36">
+        <f t="shared" si="16"/>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="AL10" s="37">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AM10" s="36">
+        <f t="shared" si="18"/>
+        <v>0.70175438596491224</v>
+      </c>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="43"/>
     </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1986,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" ref="K11:K13" si="11">1-(ABS(J11-G11))/G11</f>
+        <f t="shared" ref="K11:K13" si="19">1-(ABS(J11-G11))/G11</f>
         <v>0.82191780821917804</v>
       </c>
       <c r="L11" s="10">
@@ -2046,8 +2609,58 @@
         <f t="shared" si="10"/>
         <v>0.79754601226993871</v>
       </c>
+      <c r="AB11" s="32">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="31">
+        <f t="shared" si="11"/>
+        <v>0.9726027397260274</v>
+      </c>
+      <c r="AD11" s="30">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="31">
+        <f t="shared" si="12"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AF11" s="30">
+        <f t="shared" si="13"/>
+        <v>87.5</v>
+      </c>
+      <c r="AG11" s="31">
+        <f t="shared" si="14"/>
+        <v>0.92638036809815949</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>70</v>
+      </c>
+      <c r="AI11" s="36">
+        <f t="shared" si="15"/>
+        <v>0.95890410958904115</v>
+      </c>
+      <c r="AJ11" s="37">
+        <v>100</v>
+      </c>
+      <c r="AK11" s="36">
+        <f t="shared" si="16"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AL11" s="37">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="AM11" s="36">
+        <f t="shared" si="18"/>
+        <v>0.95705521472392641</v>
+      </c>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="43"/>
     </row>
-    <row r="12" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2693,7 @@
         <v>80</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.84057971014492749</v>
       </c>
       <c r="L12" s="10">
@@ -2140,8 +2753,58 @@
         <f t="shared" si="10"/>
         <v>0.39743589743589747</v>
       </c>
+      <c r="AB12" s="32">
+        <v>120</v>
+      </c>
+      <c r="AC12" s="31">
+        <f t="shared" si="11"/>
+        <v>0.26086956521739135</v>
+      </c>
+      <c r="AD12" s="30">
+        <v>150</v>
+      </c>
+      <c r="AE12" s="31">
+        <f t="shared" si="12"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="AF12" s="30">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG12" s="31">
+        <f t="shared" si="14"/>
+        <v>0.26923076923076927</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="36">
+        <f t="shared" si="15"/>
+        <v>0.55072463768115942</v>
+      </c>
+      <c r="AJ12" s="37">
+        <v>120</v>
+      </c>
+      <c r="AK12" s="36">
+        <f t="shared" si="16"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="AL12" s="37">
+        <f t="shared" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="AM12" s="36">
+        <f t="shared" si="18"/>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="43"/>
     </row>
-    <row r="13" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2837,7 @@
         <v>80</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="L13" s="10">
@@ -2234,8 +2897,58 @@
         <f t="shared" si="10"/>
         <v>0.4831460674157303</v>
       </c>
+      <c r="AB13" s="32">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="31">
+        <f t="shared" si="11"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="AD13" s="30">
+        <v>130</v>
+      </c>
+      <c r="AE13" s="31">
+        <f t="shared" si="12"/>
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="AF13" s="30">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+      <c r="AG13" s="31">
+        <f t="shared" si="14"/>
+        <v>0.7078651685393258</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>70</v>
+      </c>
+      <c r="AI13" s="36">
+        <f t="shared" si="15"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="AJ13" s="37">
+        <v>95</v>
+      </c>
+      <c r="AK13" s="36">
+        <f t="shared" si="16"/>
+        <v>0.89622641509433965</v>
+      </c>
+      <c r="AL13" s="37">
+        <f t="shared" si="17"/>
+        <v>82.5</v>
+      </c>
+      <c r="AM13" s="36">
+        <f t="shared" si="18"/>
+        <v>0.9269662921348315</v>
+      </c>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="43"/>
     </row>
-    <row r="14" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -2286,8 +2999,44 @@
         <f>AVERAGE(AA3:AA13)</f>
         <v>0.6960252766609204</v>
       </c>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="19">
+        <f>AVERAGE(AC3:AC13)</f>
+        <v>0.42334288693829353</v>
+      </c>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="19">
+        <f>AVERAGE(AE3:AE13)</f>
+        <v>0.62290360294746427</v>
+      </c>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="19">
+        <f>AVERAGE(AG3:AG13)</f>
+        <v>0.56610184182372369</v>
+      </c>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="19">
+        <f>AVERAGE(AI3:AI13)</f>
+        <v>0.7114059269335421</v>
+      </c>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="19">
+        <f>AVERAGE(AK3:AK13)</f>
+        <v>0.70411368928544737</v>
+      </c>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="19">
+        <f>AVERAGE(AM3:AM13)</f>
+        <v>0.7104664083857064</v>
+      </c>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="44"/>
     </row>
-    <row r="15" spans="1:27" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -2338,43 +3087,140 @@
         <f>STDEV(AA3:AA13)</f>
         <v>0.17635885972551327</v>
       </c>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="15">
+        <f>STDEV(AC3:AC13)</f>
+        <v>0.71127367475536329</v>
+      </c>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="15">
+        <f>STDEV(AE3:AE13)</f>
+        <v>0.37062460120817559</v>
+      </c>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="15">
+        <f>STDEV(AG3:AG13)</f>
+        <v>0.48950354464063595</v>
+      </c>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="15">
+        <f>STDEV(AI3:AI13)</f>
+        <v>0.34434249874115863</v>
+      </c>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="15">
+        <f>STDEV(AK3:AK13)</f>
+        <v>0.16600859235265542</v>
+      </c>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="15">
+        <f>STDEV(AM3:AM13)</f>
+        <v>0.21643680002973245</v>
+      </c>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="43"/>
     </row>
-    <row r="16" spans="1:27" ht="23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="39">
+        <f>AVERAGE(K14:O14)</f>
+        <v>0.7161711209303151</v>
+      </c>
+      <c r="Q16" s="39">
+        <f>AVERAGE(R14:V14)</f>
+        <v>0.72525677217786289</v>
+      </c>
+      <c r="W16" s="39">
+        <f>AVERAGE(X14:AB14)</f>
+        <v>0.71169879635051003</v>
+      </c>
+      <c r="AC16" s="39">
+        <f>AVERAGE(AD14:AH14)</f>
+        <v>0.59450272238559398</v>
+      </c>
+      <c r="AI16" s="39">
+        <f>AVERAGE(AJ14:AN14)</f>
+        <v>0.70729004883557689</v>
+      </c>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J18" s="22" t="s">
+    <row r="23" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K24" s="23">
         <f>AVERAGE(K14,Q14,W14)</f>
         <v>0.64288746850299161</v>
       </c>
+      <c r="M24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="23">
+        <f>AVERAGE(K14,Q14,W14,AC14,AI14)</f>
+        <v>0.6126822438761621</v>
+      </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J19" s="22" t="s">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K25" s="23">
         <f>AVERAGE(M14,S14,Y14)</f>
         <v>0.73643319140626806</v>
       </c>
+      <c r="M25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="23">
+        <f>AVERAGE(M14,S14,Y14,AE14,AK14)</f>
+        <v>0.70726337329034317</v>
+      </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J20" s="22" t="s">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K26" s="23">
         <f>AVERAGE(O14,U14,AA14)</f>
         <v>0.71471598450928309</v>
       </c>
+      <c r="M26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="23">
+        <f>AVERAGE(O14,U14,AA14,AG14,AM14)</f>
+        <v>0.68414324074745592</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
